--- a/tournament/matches/Kolkata_England_vs_Punjab_Pakistan.xlsx
+++ b/tournament/matches/Kolkata_England_vs_Punjab_Pakistan.xlsx
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mark Wood</t>
+          <t xml:space="preserve"> Liam Livingstone</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -551,14 +551,14 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>2</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mark Wood</t>
+          <t xml:space="preserve"> Adil Rashid</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -601,19 +601,19 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shaheen Afridi</t>
+          <t xml:space="preserve"> Shadab Khan</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mark Wood</t>
+          <t xml:space="preserve"> Chris Jordan</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -677,19 +677,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adil Rashid</t>
+          <t xml:space="preserve"> Chris Woakes</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shaheen Afridi</t>
+          <t xml:space="preserve"> Imad Wasim</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -727,19 +727,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chris Jordan</t>
+          <t xml:space="preserve"> Liam Livingstone</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Haris Rauf</t>
+          <t xml:space="preserve"> Imad Wasim</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -777,19 +777,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chris Jordan</t>
+          <t xml:space="preserve"> Liam Livingstone</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -801,19 +801,19 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shaheen Afridi</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -827,19 +827,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adil Rashid</t>
+          <t xml:space="preserve"> Mark Wood</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Imad Wasim</t>
+          <t xml:space="preserve"> Haris Rauf</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -877,19 +877,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chris Woakes</t>
+          <t xml:space="preserve"> Chris Jordan</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shaheen Afridi</t>
+          <t xml:space="preserve"> Haris Rauf</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -927,19 +927,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>7</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adil Rashid</t>
+          <t xml:space="preserve"> Chris Woakes</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -951,19 +951,19 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hasan Ali</t>
+          <t xml:space="preserve"> Shaheen Afridi</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -977,19 +977,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mark Wood</t>
+          <t xml:space="preserve"> Liam Livingstone</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1001,19 +1001,19 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Shaheen Afridi</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shadab Khan</t>
+          <t xml:space="preserve"> Hasan Ali</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1114,32 +1114,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J16" t="n">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="K16" t="n">
         <v>10</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -1197,7 +1197,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chris Jordan</t>
+          <t>Mark Wood</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1206,38 +1206,38 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>19.5</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Haris Rauf</t>
+          <t>Imad Wasim</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chris Woakes</t>
+          <t>Adil Rashid</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1246,38 +1246,38 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Shaheen Afridi</t>
+          <t>Shadab Khan</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Liam Livingstone</t>
+          <t>Chris Jordan</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1286,17 +1286,17 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>22.5</v>
+        <v>15.5</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Hasan Ali</t>
+          <t>Haris Rauf</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1305,38 +1305,38 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>18.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mark Wood</t>
+          <t>Chris Woakes</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>17.33</v>
+        <v>19</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Imad Wasim</t>
+          <t>Shaheen Afridi</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1345,53 +1345,53 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Adil Rashid</t>
+          <t>Liam Livingstone</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>14.55</v>
+        <v>12.14</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Shadab Khan</t>
+          <t>Hasan Ali</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>16.36</v>
+        <v>15.38</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/matches/Kolkata_England_vs_Punjab_Pakistan.xlsx
+++ b/tournament/matches/Kolkata_England_vs_Punjab_Pakistan.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Validation" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Match Summary" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chris Woakes</t>
+          <t xml:space="preserve"> Chris Jordan</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -610,14 +610,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -646,7 +646,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Haris Rauf</t>
+          <t xml:space="preserve"> Hasan Ali</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -660,14 +660,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -684,19 +684,19 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shaheen Afridi</t>
+          <t xml:space="preserve"> Haris Rauf</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chris Jordan</t>
+          <t xml:space="preserve"> Mark Wood</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Haris Rauf</t>
+          <t xml:space="preserve"> Hasan Ali</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -760,14 +760,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -784,19 +784,19 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Hasan Ali</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -810,19 +810,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adil Rashid</t>
+          <t xml:space="preserve"> Chris Jordan</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shaheen Afridi</t>
+          <t xml:space="preserve"> Imad Wasim</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -860,14 +860,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -884,10 +884,10 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shaheen Afridi</t>
+          <t xml:space="preserve"> Hasan Ali</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -910,19 +910,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liam Livingstone</t>
+          <t xml:space="preserve"> Chris Woakes</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -934,19 +934,19 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shaheen Afridi</t>
+          <t xml:space="preserve"> Shadab Khan</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adil Rashid</t>
+          <t xml:space="preserve"> Mark Wood</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Imad Wasim</t>
+          <t xml:space="preserve"> Shadab Khan</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1010,19 +1010,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mark Wood</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1034,19 +1034,19 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Imad Wasim</t>
+          <t xml:space="preserve"> Haris Rauf</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1060,19 +1060,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Adil Rashid</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1084,19 +1084,19 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shadab Khan</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1147,32 +1147,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J16" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K16" t="n">
         <v>10</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -1239,32 +1239,32 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Imad Wasim</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>18</v>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
-      <c r="E21" t="n">
-        <v>16</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Haris Rauf</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>22</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3</v>
-      </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -1279,29 +1279,29 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Shaheen Afridi</t>
+          <t>Shadab Khan</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
         <v>11</v>
@@ -1319,17 +1319,17 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Hasan Ali</t>
+          <t>Haris Rauf</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1341,7 +1341,7 @@
         <v>30</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
         <v>15</v>
@@ -1359,17 +1359,17 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Imad Wasim</t>
+          <t>Shaheen Afridi</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1378,13 +1378,13 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="25">
@@ -1395,36 +1395,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>12.67</v>
+        <v>17.5</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Shadab Khan</t>
+          <t>Hasan Ali</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N25" t="n">
-        <v>19.17</v>
+        <v>13.57</v>
       </c>
     </row>
     <row r="27">
@@ -1437,7 +1437,7 @@
     <row r="28">
       <c r="F28" t="inlineStr">
         <is>
-          <t>Punjab Pakistan Won by 56 runs</t>
+          <t>Punjab Pakistan Won by 69 runs</t>
         </is>
       </c>
     </row>
